--- a/Morosos/morosos_listado.xlsx
+++ b/Morosos/morosos_listado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>Nombre estudiante</t>
   </si>
@@ -25,30 +25,24 @@
     <t>grado</t>
   </si>
   <si>
+    <t>Vanegas Pulgarin Sheray</t>
+  </si>
+  <si>
+    <t>Posada Alzate Abraham</t>
+  </si>
+  <si>
+    <t>Peña González Sophia</t>
+  </si>
+  <si>
+    <t>Fonseca Rivera Emily Sofia</t>
+  </si>
+  <si>
+    <t>Carmona Taborda Luciana</t>
+  </si>
+  <si>
     <t>Tenorio Maya Liam</t>
   </si>
   <si>
-    <t>Posada Alzate Abraham</t>
-  </si>
-  <si>
-    <t>Peña González Sophia</t>
-  </si>
-  <si>
-    <t>Giraldo Lozano Emma</t>
-  </si>
-  <si>
-    <t>Fonseca Rivera Emily Sofia</t>
-  </si>
-  <si>
-    <t>Carmona Taborda Luciana</t>
-  </si>
-  <si>
-    <t>Vanegas Pulgarin Sheray</t>
-  </si>
-  <si>
-    <t>Guette Ortiz Ashley Carolina</t>
-  </si>
-  <si>
     <t>Ruiz Rodas Jacobo</t>
   </si>
   <si>
@@ -58,84 +52,36 @@
     <t>Martinez Correa Tomas</t>
   </si>
   <si>
-    <t>Jaramillo Carranza Santiago</t>
-  </si>
-  <si>
-    <t>Londoño Misas Emmanuel</t>
+    <t>Correa Castañeda Laura</t>
   </si>
   <si>
     <t>Quintero Taborda Pablo</t>
   </si>
   <si>
-    <t>Rincon Mendoza Hulieth Gabriela</t>
-  </si>
-  <si>
-    <t>Ortega Zabala Heri Thomas</t>
-  </si>
-  <si>
     <t>Vargas Wilches Maria Jose</t>
   </si>
   <si>
     <t>Echeverri Agudelo Samuel</t>
   </si>
   <si>
-    <t>Diaz Gonzalez Matias</t>
-  </si>
-  <si>
-    <t>Correa Castañeda Laura</t>
-  </si>
-  <si>
-    <t>Segura Rios Samuel Felipe</t>
-  </si>
-  <si>
-    <t>Jaramillo Agudelo Ana Sofia</t>
+    <t>Machado Taborda Mateo</t>
+  </si>
+  <si>
+    <t>Garzon Moreno Cristian</t>
   </si>
   <si>
     <t>Escalante Martinez Samuel</t>
   </si>
   <si>
-    <t>Usuga Hidalgo Juan Sebastian</t>
-  </si>
-  <si>
-    <t>Sanchez Bustamante Genesis</t>
-  </si>
-  <si>
-    <t>Ruiz Urquijo Martin</t>
-  </si>
-  <si>
-    <t>Machado Taborda Mateo</t>
-  </si>
-  <si>
-    <t>Garzon Moreno Cristian</t>
-  </si>
-  <si>
-    <t>Vasquez Rodas Juan Camilo</t>
-  </si>
-  <si>
-    <t>Alvarez Castaño Santiago</t>
-  </si>
-  <si>
-    <t>Bohorquez Vera Ana Sofia</t>
+    <t>Quintana Alzate Ana Sofia</t>
+  </si>
+  <si>
+    <t>Alonso Alvarez Valentina</t>
   </si>
   <si>
     <t>Cubillos Martinez Samuel</t>
   </si>
   <si>
-    <t>Garzon Sanchez Matias</t>
-  </si>
-  <si>
-    <t>Luna Higuita Matias</t>
-  </si>
-  <si>
-    <t>Quintana Alzate Ana Sofia</t>
-  </si>
-  <si>
-    <t>Usma Jaramillo Luciana</t>
-  </si>
-  <si>
-    <t>Alonso Alvarez Valentina</t>
-  </si>
-  <si>
     <t>Vargas Ramirez Zaira Julieth</t>
   </si>
   <si>
@@ -145,66 +91,45 @@
     <t>Marquez Mora Emilia</t>
   </si>
   <si>
-    <t>Cardona Mosquera Roxana</t>
-  </si>
-  <si>
     <t>Santos Paz Ezra Wolf</t>
   </si>
   <si>
+    <t>Sayago Acevedo Isabella</t>
+  </si>
+  <si>
     <t>Zapata Echeverry Abigail</t>
   </si>
   <si>
-    <t>Sayago Acevedo Isabella</t>
-  </si>
-  <si>
-    <t>Ruiz Urquijo Violeta</t>
-  </si>
-  <si>
-    <t>Clavijo Quiceno Sara</t>
+    <t>Arroyave Gonzalez Elisabet</t>
+  </si>
+  <si>
+    <t>Aroca Aguirre Maria Paz</t>
+  </si>
+  <si>
+    <t>Vasquez Rodas Josue</t>
   </si>
   <si>
     <t>Garcia Ramirez Nicolas</t>
   </si>
   <si>
-    <t>Sanchez Otalvaro Guadalupe</t>
-  </si>
-  <si>
-    <t>Segura Rios Emmanuel David</t>
-  </si>
-  <si>
-    <t>Vasquez Rodas Josue</t>
-  </si>
-  <si>
     <t>Jaramillo Carranza Camila</t>
   </si>
   <si>
-    <t>Arroyave Gonzalez Elisabet</t>
-  </si>
-  <si>
-    <t>Aroca Aguirre Maria Paz</t>
+    <t>Zambrano Mejia Mariangel</t>
   </si>
   <si>
     <t>Agudelo Luciana</t>
   </si>
   <si>
-    <t>Garcia Valencia Nicolas</t>
-  </si>
-  <si>
-    <t>Guette Ortiz Norah Isabella</t>
-  </si>
-  <si>
-    <t>Zambrano Mejia Mariangel</t>
+    <t>Prieto Albán Isaac</t>
+  </si>
+  <si>
+    <t>Quintero Suarez Andres David</t>
   </si>
   <si>
     <t>Sanchez Justiniano Jose David</t>
   </si>
   <si>
-    <t>Prieto Albán Isaac</t>
-  </si>
-  <si>
-    <t>Quintero Suarez Andres David</t>
-  </si>
-  <si>
     <t>Troya Rendon Emanuel</t>
   </si>
   <si>
@@ -220,72 +145,51 @@
     <t>Garcia Correa Andres Esteban</t>
   </si>
   <si>
-    <t>Duque Bermudez Juan Andres</t>
-  </si>
-  <si>
     <t>Bohorquez Vera Juan Esteban</t>
   </si>
   <si>
-    <t>Marin Correa Matias</t>
-  </si>
-  <si>
-    <t>Narvaez Martinez Samuel</t>
-  </si>
-  <si>
     <t>Martinez Alvarez Thiago</t>
   </si>
   <si>
+    <t>Gomez Leon Mateo</t>
+  </si>
+  <si>
     <t>Escalante Martinez Sara</t>
   </si>
   <si>
-    <t>Gomez Leon Mateo</t>
-  </si>
-  <si>
     <t>Suarez Bayona Martina</t>
   </si>
   <si>
-    <t>Ortega Zabala Abigail</t>
+    <t>Rojas Jimenez Sofia</t>
   </si>
   <si>
     <t>Ospina Cifuentes Antonella</t>
   </si>
   <si>
-    <t>Rojas Jimenez Sofia</t>
+    <t>Usma Jaramillo Maria Celeste</t>
   </si>
   <si>
     <t>Sanabria Cardona Santiago</t>
   </si>
   <si>
-    <t>Giraldo Avendaño Samuel</t>
-  </si>
-  <si>
-    <t>Usma Jaramillo Maria Celeste</t>
+    <t>Pulgarin Zuluaga Ana Maria</t>
+  </si>
+  <si>
+    <t>Posada Suarez Gabriel Fernando</t>
+  </si>
+  <si>
+    <t>Peña Solórzano Francisco Javier</t>
+  </si>
+  <si>
+    <t>David Mercado Andres Felipe</t>
+  </si>
+  <si>
+    <t>Correa Claudia Patricia</t>
   </si>
   <si>
     <t>Marin Osorio Johny Alexander</t>
   </si>
   <si>
-    <t>Posada Suarez Gabriel Fernando</t>
-  </si>
-  <si>
-    <t>Peña Solórzano Francisco Javier</t>
-  </si>
-  <si>
-    <t>Lozano Mosquera Mariam</t>
-  </si>
-  <si>
-    <t>David Mercado Andres Felipe</t>
-  </si>
-  <si>
-    <t>Correa Claudia Patricia</t>
-  </si>
-  <si>
-    <t>Pulgarin Zuluaga Ana Maria</t>
-  </si>
-  <si>
-    <t>Ortiz Julio Sirly Dayana</t>
-  </si>
-  <si>
     <t>Rodas Marin Monica Janeth</t>
   </si>
   <si>
@@ -295,175 +199,115 @@
     <t>Correa Mejia Catalina</t>
   </si>
   <si>
+    <t>Correa Correa Mauricio</t>
+  </si>
+  <si>
+    <t>Quintero Clavijo Jader Elias</t>
+  </si>
+  <si>
+    <t>Vargas Ramos Ivan Isidro</t>
+  </si>
+  <si>
+    <t>Echeverry Agudelo Sara Catalina</t>
+  </si>
+  <si>
+    <t>Sas Inversiones Myt</t>
+  </si>
+  <si>
+    <t>Garzon Prieto Nelson Fidel</t>
+  </si>
+  <si>
+    <t>Forero Reyes Janeth</t>
+  </si>
+  <si>
+    <t>Quintana Agudelo Omar Andres</t>
+  </si>
+  <si>
+    <t>Alvarez Ortiz Gladyss Patricia</t>
+  </si>
+  <si>
+    <t>Cubillos Valencia Fabio</t>
+  </si>
+  <si>
+    <t>Vargas Delgado Raul Alfredo</t>
+  </si>
+  <si>
+    <t>Aguirre Castro Maria Paulina</t>
+  </si>
+  <si>
+    <t>Mora Cardona Katherine</t>
+  </si>
+  <si>
+    <t>Santos Lopez Sebastian</t>
+  </si>
+  <si>
+    <t>Sayago Montes Juan Esteban</t>
+  </si>
+  <si>
+    <t>Echeverry Giraldo Estefania</t>
+  </si>
+  <si>
+    <t>Arroyave Mesa Juan Carlos</t>
+  </si>
+  <si>
+    <t>Vasquez Gomez Alejandro</t>
+  </si>
+  <si>
+    <t>Ramirez Suarez Leidy Tatiana</t>
+  </si>
+  <si>
     <t>Carranza Ricardo Diana Marcela</t>
   </si>
   <si>
-    <t>Misas Agudelo Francy Eunice</t>
-  </si>
-  <si>
-    <t>Quintero Clavijo Jader Elias</t>
-  </si>
-  <si>
-    <t>Rincón Juez Esteban</t>
-  </si>
-  <si>
-    <t>Zabala Cuervo Diana Rocio</t>
-  </si>
-  <si>
-    <t>Vargas Ramos Ivan Isidro</t>
-  </si>
-  <si>
-    <t>Echeverry Agudelo Sara Catalina</t>
-  </si>
-  <si>
-    <t>Diaz Rico John Edwin</t>
-  </si>
-  <si>
-    <t>Correa Correa Mauricio</t>
-  </si>
-  <si>
-    <t>Segura Camacho Oscar Dario</t>
-  </si>
-  <si>
-    <t>Agudelo Torres Sumilde Elena</t>
-  </si>
-  <si>
-    <t>Forero Reyes Janeth</t>
-  </si>
-  <si>
-    <t>Usuga Sepulveda Henrry</t>
-  </si>
-  <si>
-    <t>Sanchez Lopez Giovanny Arley</t>
-  </si>
-  <si>
-    <t>Ruiz Cardona Pablo Andres</t>
-  </si>
-  <si>
-    <t>Sas Inversiones Myt</t>
-  </si>
-  <si>
-    <t>Garzon Prieto Nelson Fidel</t>
-  </si>
-  <si>
-    <t>Vasquez Gomez Alejandro</t>
-  </si>
-  <si>
-    <t>Alvarez Maldonado Ricardo Leon</t>
+    <t>Santana Marulanda Stuart</t>
+  </si>
+  <si>
+    <t>Agudelo Juliet Cristina</t>
+  </si>
+  <si>
+    <t>Prieto Oyaga Cristhian Camilo</t>
+  </si>
+  <si>
+    <t>Quintero Gerardino Jairo Andres</t>
+  </si>
+  <si>
+    <t>Sanchez Justiniano Martha Catherine</t>
+  </si>
+  <si>
+    <t>Troya Osorio Manuel Enrique</t>
+  </si>
+  <si>
+    <t>Acevedo Galeano Viviana</t>
+  </si>
+  <si>
+    <t>Hernandez Cardona Mauricio</t>
+  </si>
+  <si>
+    <t>Correa Osorio Luisa Fernanda</t>
   </si>
   <si>
     <t>Bohorquez Almeida Cristian</t>
   </si>
   <si>
-    <t>Cubillos Valencia Fabio</t>
-  </si>
-  <si>
-    <t>Garzon Oscar Javier</t>
-  </si>
-  <si>
-    <t>Luna Berrio Sergio Alberto</t>
-  </si>
-  <si>
-    <t>Quintana Agudelo Omar Andres</t>
+    <t>Hernandez Morelo Liliana</t>
+  </si>
+  <si>
+    <t>Gomez Serna Daniel</t>
+  </si>
+  <si>
+    <t>Bayona Buitrago Sandra Milena</t>
+  </si>
+  <si>
+    <t>Alvarez Betancur Rubiela</t>
+  </si>
+  <si>
+    <t>Ospina Escobar Nilson James</t>
   </si>
   <si>
     <t>Usma Acevedo Elkin Humberto</t>
   </si>
   <si>
-    <t>Alvarez Ortiz Gladyss Patricia</t>
-  </si>
-  <si>
-    <t>Vargas Delgado Raul Alfredo</t>
-  </si>
-  <si>
-    <t>Aguirre Castro Maria Paulina</t>
-  </si>
-  <si>
-    <t>Mora Cardona Katherine</t>
-  </si>
-  <si>
-    <t>Mosquera Rodriguez Tania Karina</t>
-  </si>
-  <si>
-    <t>Santos Lopez Sebastian</t>
-  </si>
-  <si>
-    <t>Echeverry Giraldo Estefania</t>
-  </si>
-  <si>
-    <t>Sayago Montes Juan Esteban</t>
-  </si>
-  <si>
-    <t>Carreño Bohorquez Nora Maria</t>
-  </si>
-  <si>
-    <t>Ramirez Suarez Leidy Tatiana</t>
-  </si>
-  <si>
-    <t>Sanchez Agudelo Uber Herney</t>
-  </si>
-  <si>
-    <t>Arroyave Mesa Juan Carlos</t>
-  </si>
-  <si>
-    <t>Agudelo Juliet Cristina</t>
-  </si>
-  <si>
-    <t>Valencia Gonzalez Leydy Vanessa</t>
-  </si>
-  <si>
-    <t>Santana Marulanda Stuart</t>
-  </si>
-  <si>
-    <t>Sanchez Justiniano Martha Catherine</t>
-  </si>
-  <si>
-    <t>Prieto Oyaga Cristhian Camilo</t>
-  </si>
-  <si>
-    <t>Quintero Gerardino Jairo Andres</t>
-  </si>
-  <si>
-    <t>Troya Osorio Manuel Enrique</t>
-  </si>
-  <si>
-    <t>Acevedo Galeano Viviana</t>
-  </si>
-  <si>
-    <t>Hernandez Cardona Mauricio</t>
-  </si>
-  <si>
-    <t>Correa Osorio Luisa Fernanda</t>
-  </si>
-  <si>
-    <t>Duque Botero Johnny Yesid</t>
-  </si>
-  <si>
-    <t>Correa Arboleda Ana Maria</t>
-  </si>
-  <si>
-    <t>Martinez Florez Yerlys Sadit</t>
-  </si>
-  <si>
-    <t>Hernandez Morelo Liliana</t>
-  </si>
-  <si>
-    <t>Gomez Serna Daniel</t>
-  </si>
-  <si>
-    <t>Bayona Buitrago Sandra Milena</t>
-  </si>
-  <si>
-    <t>Ospina Escobar Nilson James</t>
-  </si>
-  <si>
-    <t>Alvarez Betancur Rubiela</t>
-  </si>
-  <si>
     <t>Sanabria Ballen Andres Leonardo</t>
-  </si>
-  <si>
-    <t>Avendaño Tamayo Yudi Patricia</t>
   </si>
   <si>
     <t>CUARTO</t>
@@ -854,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -887,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -898,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -909,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -920,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -931,10 +775,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -942,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -953,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -964,10 +808,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -975,10 +819,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -986,10 +830,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -997,10 +841,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1008,10 +852,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1019,10 +863,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1030,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1041,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1052,10 +896,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1063,10 +907,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1074,10 +918,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1085,10 +929,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1096,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1107,10 +951,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1118,10 +962,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1129,10 +973,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1140,10 +984,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1151,10 +995,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1162,10 +1006,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1173,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1184,10 +1028,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1195,10 +1039,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1206,10 +1050,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1217,10 +1061,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1228,10 +1072,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1239,10 +1083,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1250,10 +1094,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1261,10 +1105,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1272,10 +1116,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1283,10 +1127,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1294,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1305,10 +1149,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1316,10 +1160,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1327,10 +1171,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1338,10 +1182,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1349,10 +1193,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1360,10 +1204,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1371,10 +1215,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1382,10 +1226,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1393,10 +1237,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1404,340 +1248,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Morosos/morosos_listado.xlsx
+++ b/Morosos/morosos_listado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Nombre estudiante</t>
   </si>
@@ -25,94 +25,31 @@
     <t>grado</t>
   </si>
   <si>
-    <t>Vanegas Pulgarin Sheray</t>
-  </si>
-  <si>
-    <t>Posada Alzate Abraham</t>
-  </si>
-  <si>
-    <t>Peña González Sophia</t>
+    <t>Carmona Taborda Luciana</t>
+  </si>
+  <si>
+    <t>Tenorio Maya Liam</t>
   </si>
   <si>
     <t>Fonseca Rivera Emily Sofia</t>
   </si>
   <si>
-    <t>Carmona Taborda Luciana</t>
-  </si>
-  <si>
-    <t>Tenorio Maya Liam</t>
+    <t>Ruiz Estrada Sofia Camila</t>
   </si>
   <si>
     <t>Ruiz Rodas Jacobo</t>
   </si>
   <si>
-    <t>Ruiz Estrada Sofia Camila</t>
-  </si>
-  <si>
-    <t>Martinez Correa Tomas</t>
-  </si>
-  <si>
-    <t>Correa Castañeda Laura</t>
-  </si>
-  <si>
-    <t>Quintero Taborda Pablo</t>
-  </si>
-  <si>
-    <t>Vargas Wilches Maria Jose</t>
-  </si>
-  <si>
-    <t>Echeverri Agudelo Samuel</t>
-  </si>
-  <si>
-    <t>Machado Taborda Mateo</t>
-  </si>
-  <si>
-    <t>Garzon Moreno Cristian</t>
-  </si>
-  <si>
-    <t>Escalante Martinez Samuel</t>
-  </si>
-  <si>
-    <t>Quintana Alzate Ana Sofia</t>
-  </si>
-  <si>
-    <t>Alonso Alvarez Valentina</t>
-  </si>
-  <si>
-    <t>Cubillos Martinez Samuel</t>
-  </si>
-  <si>
-    <t>Vargas Ramirez Zaira Julieth</t>
-  </si>
-  <si>
-    <t>Aroca Aguirre Maria Celeste</t>
+    <t>Sayago Acevedo Isabella</t>
+  </si>
+  <si>
+    <t>Santos Paz Ezra Wolf</t>
   </si>
   <si>
     <t>Marquez Mora Emilia</t>
   </si>
   <si>
-    <t>Santos Paz Ezra Wolf</t>
-  </si>
-  <si>
-    <t>Sayago Acevedo Isabella</t>
-  </si>
-  <si>
-    <t>Zapata Echeverry Abigail</t>
-  </si>
-  <si>
-    <t>Arroyave Gonzalez Elisabet</t>
-  </si>
-  <si>
-    <t>Aroca Aguirre Maria Paz</t>
-  </si>
-  <si>
-    <t>Vasquez Rodas Josue</t>
-  </si>
-  <si>
-    <t>Garcia Ramirez Nicolas</t>
-  </si>
-  <si>
-    <t>Jaramillo Carranza Camila</t>
+    <t>Sanchez Justiniano Jose David</t>
   </si>
   <si>
     <t>Zambrano Mejia Mariangel</t>
@@ -121,142 +58,49 @@
     <t>Agudelo Luciana</t>
   </si>
   <si>
-    <t>Prieto Albán Isaac</t>
-  </si>
-  <si>
     <t>Quintero Suarez Andres David</t>
   </si>
   <si>
-    <t>Sanchez Justiniano Jose David</t>
+    <t>Garcia Correa Andres Esteban</t>
+  </si>
+  <si>
+    <t>Sayago Acevedo Samuel</t>
   </si>
   <si>
     <t>Troya Rendon Emanuel</t>
   </si>
   <si>
-    <t>Sayago Acevedo Samuel</t>
-  </si>
-  <si>
-    <t>Quintero Taborda David</t>
-  </si>
-  <si>
-    <t>Pérez Hernández Salomé</t>
-  </si>
-  <si>
-    <t>Garcia Correa Andres Esteban</t>
-  </si>
-  <si>
-    <t>Bohorquez Vera Juan Esteban</t>
-  </si>
-  <si>
-    <t>Martinez Alvarez Thiago</t>
-  </si>
-  <si>
     <t>Gomez Leon Mateo</t>
   </si>
   <si>
-    <t>Escalante Martinez Sara</t>
-  </si>
-  <si>
-    <t>Suarez Bayona Martina</t>
-  </si>
-  <si>
-    <t>Rojas Jimenez Sofia</t>
-  </si>
-  <si>
     <t>Ospina Cifuentes Antonella</t>
   </si>
   <si>
-    <t>Usma Jaramillo Maria Celeste</t>
-  </si>
-  <si>
-    <t>Sanabria Cardona Santiago</t>
-  </si>
-  <si>
-    <t>Pulgarin Zuluaga Ana Maria</t>
-  </si>
-  <si>
-    <t>Posada Suarez Gabriel Fernando</t>
-  </si>
-  <si>
-    <t>Peña Solórzano Francisco Javier</t>
+    <t>Correa Claudia Patricia</t>
+  </si>
+  <si>
+    <t>Marin Osorio Johny Alexander</t>
   </si>
   <si>
     <t>David Mercado Andres Felipe</t>
   </si>
   <si>
-    <t>Correa Claudia Patricia</t>
-  </si>
-  <si>
-    <t>Marin Osorio Johny Alexander</t>
+    <t>Estrada Colon Yerica Del Carmen</t>
   </si>
   <si>
     <t>Rodas Marin Monica Janeth</t>
   </si>
   <si>
-    <t>Estrada Colon Yerica Del Carmen</t>
-  </si>
-  <si>
-    <t>Correa Mejia Catalina</t>
-  </si>
-  <si>
-    <t>Correa Correa Mauricio</t>
-  </si>
-  <si>
-    <t>Quintero Clavijo Jader Elias</t>
-  </si>
-  <si>
-    <t>Vargas Ramos Ivan Isidro</t>
-  </si>
-  <si>
-    <t>Echeverry Agudelo Sara Catalina</t>
-  </si>
-  <si>
-    <t>Sas Inversiones Myt</t>
-  </si>
-  <si>
-    <t>Garzon Prieto Nelson Fidel</t>
-  </si>
-  <si>
-    <t>Forero Reyes Janeth</t>
-  </si>
-  <si>
-    <t>Quintana Agudelo Omar Andres</t>
-  </si>
-  <si>
-    <t>Alvarez Ortiz Gladyss Patricia</t>
-  </si>
-  <si>
-    <t>Cubillos Valencia Fabio</t>
-  </si>
-  <si>
-    <t>Vargas Delgado Raul Alfredo</t>
-  </si>
-  <si>
-    <t>Aguirre Castro Maria Paulina</t>
+    <t>Sayago Montes Juan Esteban</t>
+  </si>
+  <si>
+    <t>Santos Lopez Sebastian</t>
   </si>
   <si>
     <t>Mora Cardona Katherine</t>
   </si>
   <si>
-    <t>Santos Lopez Sebastian</t>
-  </si>
-  <si>
-    <t>Sayago Montes Juan Esteban</t>
-  </si>
-  <si>
-    <t>Echeverry Giraldo Estefania</t>
-  </si>
-  <si>
-    <t>Arroyave Mesa Juan Carlos</t>
-  </si>
-  <si>
-    <t>Vasquez Gomez Alejandro</t>
-  </si>
-  <si>
-    <t>Ramirez Suarez Leidy Tatiana</t>
-  </si>
-  <si>
-    <t>Carranza Ricardo Diana Marcela</t>
+    <t>Sanchez Justiniano Martha Catherine</t>
   </si>
   <si>
     <t>Santana Marulanda Stuart</t>
@@ -265,70 +109,31 @@
     <t>Agudelo Juliet Cristina</t>
   </si>
   <si>
-    <t>Prieto Oyaga Cristhian Camilo</t>
-  </si>
-  <si>
     <t>Quintero Gerardino Jairo Andres</t>
   </si>
   <si>
-    <t>Sanchez Justiniano Martha Catherine</t>
+    <t>Correa Osorio Luisa Fernanda</t>
+  </si>
+  <si>
+    <t>Acevedo Galeano Viviana</t>
   </si>
   <si>
     <t>Troya Osorio Manuel Enrique</t>
   </si>
   <si>
-    <t>Acevedo Galeano Viviana</t>
-  </si>
-  <si>
-    <t>Hernandez Cardona Mauricio</t>
-  </si>
-  <si>
-    <t>Correa Osorio Luisa Fernanda</t>
-  </si>
-  <si>
-    <t>Bohorquez Almeida Cristian</t>
-  </si>
-  <si>
-    <t>Hernandez Morelo Liliana</t>
-  </si>
-  <si>
     <t>Gomez Serna Daniel</t>
   </si>
   <si>
-    <t>Bayona Buitrago Sandra Milena</t>
-  </si>
-  <si>
-    <t>Alvarez Betancur Rubiela</t>
-  </si>
-  <si>
     <t>Ospina Escobar Nilson James</t>
   </si>
   <si>
-    <t>Usma Acevedo Elkin Humberto</t>
-  </si>
-  <si>
-    <t>Sanabria Ballen Andres Leonardo</t>
-  </si>
-  <si>
     <t>CUARTO</t>
   </si>
   <si>
     <t>DÉCIMO</t>
   </si>
   <si>
-    <t>NOVENO</t>
-  </si>
-  <si>
-    <t>OCTAVO</t>
-  </si>
-  <si>
-    <t>ONCE</t>
-  </si>
-  <si>
     <t>PRIMERO</t>
-  </si>
-  <si>
-    <t>QUINTO</t>
   </si>
   <si>
     <t>SEGUNDO</t>
@@ -698,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -731,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -742,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -753,10 +558,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -764,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -775,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -786,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -797,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -808,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -819,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -830,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -841,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -852,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -863,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -874,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -885,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -896,362 +701,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
         <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
